--- a/app/upload/device/demo_back/20170627/demo.xlsx
+++ b/app/upload/device/demo_back/20170627/demo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="仪器信息0131" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -23,12 +23,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
           </rPr>
-          <t xml:space="preserve">潘峰:
+          <t>潘峰:
 (年)(月的字母形式)(日的两位数字形式)(试剂来源)(2007年4月之前安装仪器定义为9)(年)(月-3,前三月定义为0)(序号)</t>
         </r>
       </text>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>识别码</t>
   </si>
@@ -137,27 +136,17 @@
   </si>
   <si>
     <t>公司安装单号</t>
-  </si>
-  <si>
-    <t>库存空间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -166,8 +155,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -181,7 +176,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,23 +204,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -243,32 +223,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0092D050"/>
-      <rgbColor rgb="0000B0F0"/>
-      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
@@ -323,20 +300,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 主题">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -360,82 +337,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 主题">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 主题">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,20 +384,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -492,7 +405,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -513,16 +426,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,23 +435,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -565,8 +467,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:shade val="99000"/>
                 <a:satMod val="350000"/>
-                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -605,68 +507,895 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="_h" fmla="val 21600"/>
-            <a:gd name="_w" fmla="val 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:pathLst>
-            <a:path w="21600" h="21600"/>
-          </a:pathLst>
-        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="4F81BD"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
     </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
     <a:txDef>
       <a:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="_h" fmla="val 21600"/>
-            <a:gd name="_w" fmla="val 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:pathLst>
-            <a:path w="21600" h="21600"/>
-          </a:pathLst>
-        </a:custGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="12700" cap="flat">
           <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
     </a:txDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
@@ -674,12 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AG1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -718,7 +1446,7 @@
     <col min="33" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.95" customHeight="1" spans="1:33">
+    <row r="1" spans="1:32" ht="21.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,15 +1543,13 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370100000000002" right="0.39370100000000002" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
